--- a/search_form/input/summer.xlsx
+++ b/search_form/input/summer.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\denru\PycharmProjects\Medoctor\search_form\input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Program Files (x86)\Medoctor\_internal\search_form\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{085226AE-D715-478B-9E17-FEB71509F572}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06A3E229-5FC7-4E93-BCBD-E1C0CBD44F57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -30,6 +30,9 @@
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
+    </ext>
   </extLst>
 </workbook>
 </file>
@@ -223,9 +226,6 @@
     <t>Врач-терапевт 2 каб</t>
   </si>
   <si>
-    <t>Врач-психиатр  __ каб</t>
-  </si>
-  <si>
     <t>Врач-профпатолог__ каб</t>
   </si>
   <si>
@@ -238,19 +238,22 @@
     <t>Врач-оториноларинголог 6 каб</t>
   </si>
   <si>
-    <t>Врач-дерматовенеролог 8 каб</t>
-  </si>
-  <si>
     <t>Врач-офтальмолог 4 каб</t>
   </si>
   <si>
-    <t>Врач-хирург 9 каб</t>
-  </si>
-  <si>
-    <t>Врач-психиатр-нарколог  __ каб</t>
-  </si>
-  <si>
     <t>a-HBCOR</t>
+  </si>
+  <si>
+    <t>Врач-дерматовенеролог 9 каб</t>
+  </si>
+  <si>
+    <t>Врач-хирург 8 каб</t>
+  </si>
+  <si>
+    <t>Врач-психиатр 3 каб</t>
+  </si>
+  <si>
+    <t>Врач-психиатр-нарколог 3 каб</t>
   </si>
 </sst>
 </file>
@@ -437,9 +440,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office 2013–2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -477,7 +480,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -583,7 +586,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -725,7 +728,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -749,8 +752,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="D56" sqref="D56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -774,7 +777,7 @@
         <v>61</v>
       </c>
       <c r="B2" s="7">
-        <v>250</v>
+        <v>280</v>
       </c>
       <c r="C2" t="str">
         <f>IF(ISERROR(MATCH(A2,Sheet1!A:A,0))," ","+")</f>
@@ -786,10 +789,10 @@
     </row>
     <row r="3" spans="1:4" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="B3" s="7">
-        <v>280</v>
+        <v>300</v>
       </c>
       <c r="C3" t="str">
         <f>IF(ISERROR(MATCH(A3,Sheet1!A:A,0))," ","+")</f>
@@ -802,10 +805,10 @@
     </row>
     <row r="4" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B4" s="7">
-        <v>280</v>
+        <v>300</v>
       </c>
       <c r="C4" t="str">
         <f>IF(ISERROR(MATCH(A4,Sheet1!A:A,0))," ","+")</f>
@@ -814,7 +817,7 @@
     </row>
     <row r="5" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B5" s="7">
         <v>280</v>
@@ -826,10 +829,10 @@
     </row>
     <row r="6" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B6" s="7">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="C6" t="str">
         <f>IF(ISERROR(MATCH(A6,Sheet1!A:A,0))," ","+")</f>
@@ -838,10 +841,10 @@
     </row>
     <row r="7" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B7" s="7">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="C7" t="str">
         <f>IF(ISERROR(MATCH(A7,Sheet1!A:A,0))," ","+")</f>
@@ -850,10 +853,10 @@
     </row>
     <row r="8" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B8" s="7">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="C8" t="str">
         <f>IF(ISERROR(MATCH(A8,Sheet1!A:A,0))," ","+")</f>
@@ -862,10 +865,10 @@
     </row>
     <row r="9" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B9" s="7">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="C9" t="str">
         <f>IF(ISERROR(MATCH(A9,Sheet1!A:A,0))," ","+")</f>
@@ -874,10 +877,10 @@
     </row>
     <row r="10" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B10" s="7">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="C10" t="str">
         <f>IF(ISERROR(MATCH(A10,Sheet1!A:A,0))," ","+")</f>
@@ -889,7 +892,7 @@
         <v>69</v>
       </c>
       <c r="B11" s="7">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="C11" t="str">
         <f>IF(ISERROR(MATCH(A11,Sheet1!A:A,0))," ","+")</f>
@@ -901,7 +904,7 @@
         <v>4</v>
       </c>
       <c r="B12" s="7">
-        <v>230</v>
+        <v>250</v>
       </c>
       <c r="C12" t="str">
         <f>IF(ISERROR(MATCH(A12,Sheet1!A:A,0))," ","+")</f>
@@ -913,7 +916,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="7">
-        <v>360</v>
+        <v>370</v>
       </c>
       <c r="C13" t="str">
         <f>IF(ISERROR(MATCH(A13,Sheet1!C:C,0))," ","+")</f>
@@ -925,7 +928,7 @@
         <v>6</v>
       </c>
       <c r="B14" s="7">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="C14" t="str">
         <f>IF(ISERROR(MATCH(A14,Sheet1!C:C,0))," ","+")</f>
@@ -937,7 +940,7 @@
         <v>7</v>
       </c>
       <c r="B15" s="7">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="C15" t="str">
         <f>IF(ISERROR(MATCH(A15,Sheet1!C:C,0))," ","+")</f>
@@ -949,7 +952,7 @@
         <v>8</v>
       </c>
       <c r="B16" s="7">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="C16" t="str">
         <f>IF(ISERROR(MATCH(A16,Sheet1!C:C,0))," ","+")</f>
@@ -961,7 +964,7 @@
         <v>9</v>
       </c>
       <c r="B17" s="7">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="C17" t="str">
         <f>IF(ISERROR(MATCH(A17,Sheet1!C:C,0))," ","+")</f>
@@ -973,7 +976,7 @@
         <v>12</v>
       </c>
       <c r="B18" s="7">
-        <v>550</v>
+        <v>570</v>
       </c>
       <c r="C18" t="str">
         <f>IF(ISERROR(MATCH(A18,Sheet1!C:C,0))," ","+")</f>
@@ -985,7 +988,7 @@
         <v>13</v>
       </c>
       <c r="B19" s="7">
-        <v>330</v>
+        <v>350</v>
       </c>
       <c r="C19" t="str">
         <f>IF(ISERROR(MATCH(A19,Sheet1!C:C,0))," ","+")</f>
@@ -997,7 +1000,7 @@
         <v>14</v>
       </c>
       <c r="B20" s="7">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="C20" t="str">
         <f>IF(ISERROR(MATCH(A20,Sheet1!C:C,0))," ","+")</f>
@@ -1009,7 +1012,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="7">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="C21" t="str">
         <f>IF(ISERROR(MATCH(A21,Sheet1!C:C,0))," ","+")</f>
@@ -1040,7 +1043,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>26</v>
       </c>
@@ -1076,7 +1079,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>31</v>
       </c>
@@ -1136,7 +1139,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>49</v>
       </c>
@@ -1148,7 +1151,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>50</v>
       </c>
@@ -1160,12 +1163,12 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>59</v>
       </c>
       <c r="B34" s="7">
-        <v>580</v>
+        <v>590</v>
       </c>
       <c r="C34" t="str">
         <f>IF(ISERROR(MATCH(A34,Sheet1!C:C,0))," ","+")</f>
@@ -1177,14 +1180,14 @@
         <v>51</v>
       </c>
       <c r="B35" s="7">
-        <v>280</v>
+        <v>300</v>
       </c>
       <c r="C35" t="str">
         <f>IF(ISERROR(MATCH(A35,Sheet1!C:C,0))," ","+")</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>52</v>
       </c>
@@ -1196,7 +1199,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>53</v>
       </c>
@@ -1234,7 +1237,7 @@
     </row>
     <row r="40" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B40" s="7">
         <v>565</v>
@@ -1273,7 +1276,7 @@
         <v>10</v>
       </c>
       <c r="B43" s="7">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="C43" t="str">
         <f>IF(ISERROR(MATCH(A43,Sheet1!B:B,0))," ","+")</f>
@@ -1285,7 +1288,7 @@
         <v>58</v>
       </c>
       <c r="B44" s="7">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="C44" t="str">
         <f>IF(ISERROR(MATCH(A44,Sheet1!B:B,0))," ","+")</f>
@@ -1297,7 +1300,7 @@
         <v>11</v>
       </c>
       <c r="B45" s="7">
-        <v>250</v>
+        <v>280</v>
       </c>
       <c r="C45" t="str">
         <f>IF(ISERROR(MATCH(A45,Sheet1!B:B,0))," ","+")</f>
@@ -1309,7 +1312,7 @@
         <v>15</v>
       </c>
       <c r="B46" s="7">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="C46" t="str">
         <f>IF(ISERROR(MATCH(A46,Sheet1!B:B,0))," ","+")</f>
@@ -1321,7 +1324,7 @@
         <v>16</v>
       </c>
       <c r="B47" s="7">
-        <v>850</v>
+        <v>950</v>
       </c>
       <c r="C47" t="str">
         <f>IF(ISERROR(MATCH(A47,Sheet1!B:B,0))," ","+")</f>
@@ -1333,7 +1336,7 @@
         <v>17</v>
       </c>
       <c r="B48" s="7">
-        <v>350</v>
+        <v>370</v>
       </c>
       <c r="C48" t="str">
         <f>IF(ISERROR(MATCH(A48,Sheet1!B:B,0))," ","+")</f>
@@ -1345,7 +1348,7 @@
         <v>18</v>
       </c>
       <c r="B49" s="7">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="C49" t="str">
         <f>IF(ISERROR(MATCH(A49,Sheet1!B:B,0))," ","+")</f>
@@ -1357,7 +1360,7 @@
         <v>60</v>
       </c>
       <c r="B50" s="7">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="C50" t="str">
         <f>IF(ISERROR(MATCH(A50,Sheet1!B:B,0))," ","+")</f>
@@ -1369,7 +1372,7 @@
         <v>21</v>
       </c>
       <c r="B51" s="7">
-        <v>100</v>
+        <v>180</v>
       </c>
       <c r="C51" t="str">
         <f>IF(ISERROR(MATCH(A51,Sheet1!B:B,0))," ","+")</f>
@@ -1393,7 +1396,7 @@
         <v>23</v>
       </c>
       <c r="B53" s="7">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="C53" t="str">
         <f>IF(ISERROR(MATCH(A53,Sheet1!B:B,0))," ","+")</f>
@@ -1405,7 +1408,7 @@
         <v>25</v>
       </c>
       <c r="B54" s="7">
-        <v>420</v>
+        <v>440</v>
       </c>
       <c r="C54" t="str">
         <f>IF(ISERROR(MATCH(A54,Sheet1!B:B,0))," ","+")</f>
@@ -1417,7 +1420,7 @@
         <v>27</v>
       </c>
       <c r="B55" s="7">
-        <v>1400</v>
+        <v>1700</v>
       </c>
       <c r="C55" t="str">
         <f>IF(ISERROR(MATCH(A55,Sheet1!B:B,0))," ","+")</f>
@@ -1429,7 +1432,7 @@
         <v>29</v>
       </c>
       <c r="B56" s="7">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="C56" t="str">
         <f>IF(ISERROR(MATCH(A56,Sheet1!B:B,0))," ","+")</f>
@@ -1453,7 +1456,7 @@
         <v>37</v>
       </c>
       <c r="B58" s="7">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="C58" t="str">
         <f>IF(ISERROR(MATCH(A58,Sheet1!B:B,0))," ","+")</f>
@@ -1489,7 +1492,7 @@
         <v>40</v>
       </c>
       <c r="B61" s="7">
-        <v>100</v>
+        <v>170</v>
       </c>
       <c r="C61" t="str">
         <f>IF(ISERROR(MATCH(A61,Sheet1!B:B,0))," ","+")</f>
@@ -1501,7 +1504,7 @@
         <v>41</v>
       </c>
       <c r="B62" s="7">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="C62" t="str">
         <f>IF(ISERROR(MATCH(A62,Sheet1!B:B,0))," ","+")</f>
@@ -1513,7 +1516,7 @@
         <v>42</v>
       </c>
       <c r="B63" s="7">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="C63" t="str">
         <f>IF(ISERROR(MATCH(A63,Sheet1!B:B,0))," ","+")</f>
@@ -1525,7 +1528,7 @@
         <v>43</v>
       </c>
       <c r="B64" s="7">
-        <v>100</v>
+        <v>180</v>
       </c>
       <c r="C64" t="str">
         <f>IF(ISERROR(MATCH(A64,Sheet1!B:B,0))," ","+")</f>
@@ -1549,7 +1552,7 @@
         <v>45</v>
       </c>
       <c r="B66" s="7">
-        <v>2500</v>
+        <v>2750</v>
       </c>
       <c r="C66" t="str">
         <f>IF(ISERROR(MATCH(A66,Sheet1!B:B,0))," ","+")</f>
@@ -1561,7 +1564,7 @@
         <v>46</v>
       </c>
       <c r="B67" s="7">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="C67" t="str">
         <f>IF(ISERROR(MATCH(A67,Sheet1!B:B,0))," ","+")</f>
@@ -1573,7 +1576,7 @@
         <v>47</v>
       </c>
       <c r="B68" s="7">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="C68" t="str">
         <f>IF(ISERROR(MATCH(A68,Sheet1!B:B,0))," ","+")</f>
@@ -1585,7 +1588,7 @@
         <v>48</v>
       </c>
       <c r="B69" s="7">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="C69" t="str">
         <f>IF(ISERROR(MATCH(A69,Sheet1!B:B,0))," ","+")</f>
